--- a/hourly datasets/cap_gen_year18final.xlsx
+++ b/hourly datasets/cap_gen_year18final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1165123765703829</v>
+        <v>0.1055113828966178</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001889459843509054</v>
+        <v>0.003077050901595573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002932003453046269</v>
+        <v>0.0007090834989552793</v>
       </c>
       <c r="D3" t="n">
-        <v>2.069311224615715</v>
+        <v>5.155846636029093</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15900119667429</v>
+        <v>0.08345614489873396</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.003857251980443365</v>
+        <v>0.00168726747658944</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007636171667461472</v>
+        <v>0.004466834326601707</v>
       </c>
       <c r="H3" t="n">
-        <v>0.118401836413892</v>
+        <v>0.1085884337982134</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005029020918430532</v>
+        <v>0.006183902575172915</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0044714008436886</v>
+        <v>0.001623603099642614</v>
       </c>
       <c r="D4" t="n">
-        <v>3.07819356610589</v>
+        <v>6.058520379474212</v>
       </c>
       <c r="E4" t="n">
-        <v>0.100466531031813</v>
+        <v>0.03470057094788833</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.003734909326910568</v>
+        <v>0.003001688329325818</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01379295116377163</v>
+        <v>0.009366116821020011</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1215413974888134</v>
+        <v>0.1116952854717907</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004575210584382775</v>
+        <v>0.01037695341129617</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003589735869245429</v>
+        <v>0.002373578590677842</v>
       </c>
       <c r="D5" t="n">
-        <v>1.748597162449866</v>
+        <v>6.858245491748216</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0844719929131544</v>
+        <v>0.0002348453347379148</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.002460678924277615</v>
+        <v>0.005724810501236933</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01161110009304317</v>
+        <v>0.0150290963213554</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1210875871547657</v>
+        <v>0.115888336307914</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003651653778901388</v>
+        <v>0.007057157620615919</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003603440219786279</v>
+        <v>0.004298490341215918</v>
       </c>
       <c r="D6" t="n">
-        <v>0.59891064869734</v>
+        <v>2.344374205507154</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05823774350636564</v>
+        <v>0.07419427420557795</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.00341107562055572</v>
+        <v>-0.001367753526678727</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0107143831783585</v>
+        <v>0.01548206876791056</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1201640303492843</v>
+        <v>0.1125685405172337</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.001745418594091415</v>
+        <v>0.0085021688254235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003706289473027738</v>
+        <v>0.004310308172033145</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3798035011273496</v>
+        <v>1.233395711586459</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07994298852773263</v>
+        <v>0.1746252399387233</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.009009726057457</v>
+        <v>5.409493788441077e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005518888869274168</v>
+        <v>0.01695024271296259</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1147669579762915</v>
+        <v>0.1140135517220413</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.483112917140887e-05</v>
+        <v>0.009890863204363233</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003627814590625447</v>
+        <v>0.005394945667408544</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6022476254581627</v>
+        <v>0.8894896090888758</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06539285766537178</v>
+        <v>0.1525084530008978</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.007035665700065719</v>
+        <v>-0.000683065177812207</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007185327958408537</v>
+        <v>0.02046479158653867</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1165872076995543</v>
+        <v>0.1154022461009811</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007909438853155624</v>
+        <v>0.008360746701278858</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001988348418054197</v>
+        <v>0.005621032217840073</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.633085212259296</v>
+        <v>0.8606591534204926</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04467886730658181</v>
+        <v>0.1307706093420732</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.003106214955821971</v>
+        <v>-0.002656306746397124</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004688102726453095</v>
+        <v>0.01937780014895484</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1173033204556985</v>
+        <v>0.1138721295978967</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1165123765703829</v>
+        <v>-0.1055113828966178</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001550080825295337</v>
+        <v>0.0005285358317725725</v>
       </c>
       <c r="D10" t="n">
-        <v>-112.0628413047133</v>
+        <v>-229.191924130787</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006971764187991269</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.119550532076703</v>
+        <v>-0.1065472978095343</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1134742210640629</v>
+        <v>-0.1044754679837013</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05298984501299185</v>
+        <v>-0.04978652197816739</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001658029581044577</v>
+        <v>0.0005767820399017431</v>
       </c>
       <c r="D11" t="n">
-        <v>-44.48410419934545</v>
+        <v>-96.29705670275807</v>
       </c>
       <c r="E11" t="n">
-        <v>4.869991880858967e-05</v>
+        <v>8.81580535912254e-171</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05623957987363947</v>
+        <v>-0.05091699807586809</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04974011015234422</v>
+        <v>-0.04865604588046671</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06352253155739106</v>
+        <v>0.05572486091845043</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04266810187457581</v>
+        <v>-0.03913832365960477</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001610660444579539</v>
+        <v>0.0005510321437587137</v>
       </c>
       <c r="D12" t="n">
-        <v>-37.78142395470638</v>
+        <v>-79.93599789829119</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009661253082031369</v>
+        <v>3.409394990344216e-87</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04582499346308812</v>
+        <v>-0.04021833070820878</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0395112102860635</v>
+        <v>-0.03805831661100076</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07384427469580709</v>
+        <v>0.06637305923701306</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03894637643902987</v>
+        <v>-0.03617143999336091</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001619027402710388</v>
+        <v>0.0005519944846386196</v>
       </c>
       <c r="D13" t="n">
-        <v>-34.63610404918364</v>
+        <v>-73.41614956222762</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005611837058929735</v>
+        <v>1.429841425579727e-103</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04211966790254683</v>
+        <v>-0.03725333318157196</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03577308497551294</v>
+        <v>-0.03508954680514985</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07756600013135304</v>
+        <v>0.06933994290325692</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03185852014869082</v>
+        <v>-0.02985661707435921</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001561023873277572</v>
+        <v>0.0005331536511850108</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.14853035297736</v>
+        <v>-64.41443175916565</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01568867590406551</v>
+        <v>2.665552675886679e-23</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0349181243932685</v>
+        <v>-0.03090158278942326</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02879891590411316</v>
+        <v>-0.02881165135929518</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08465385642169208</v>
+        <v>0.07565476582225861</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02860060056474964</v>
+        <v>-0.02692384769151067</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001527468189914922</v>
+        <v>0.0005247263668221543</v>
       </c>
       <c r="D15" t="n">
-        <v>-28.12244546031842</v>
+        <v>-58.7902041874756</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003539893536685087</v>
+        <v>1.176921738007564e-11</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03159443571455889</v>
+        <v>-0.02795229617493981</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0256067654149404</v>
+        <v>-0.02589539920808152</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08791177600563327</v>
+        <v>0.07858753520510715</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0263454278290078</v>
+        <v>-0.02531101567749676</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001530053541569388</v>
+        <v>0.0005206222631651655</v>
       </c>
       <c r="D16" t="n">
-        <v>-24.96184844837081</v>
+        <v>-54.35352884026561</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01018590052163369</v>
+        <v>3.181565118844527e-51</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02934433059605525</v>
+        <v>-0.02633142025692624</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02334652506196033</v>
+        <v>-0.02429061109806729</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09016694874137511</v>
+        <v>0.08020036721912106</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02511767043082556</v>
+        <v>-0.02423816440304967</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001549272506947184</v>
+        <v>0.0005281269613392352</v>
       </c>
       <c r="D17" t="n">
-        <v>-24.07948870589226</v>
+        <v>-52.09330666426062</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0151920815696075</v>
+        <v>8.358045163770415e-15</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0281542421014459</v>
+        <v>-0.02527327794817064</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02208109876020521</v>
+        <v>-0.02320305085792872</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09139470613955734</v>
+        <v>0.08127321849356815</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02114070554542245</v>
+        <v>-0.02067331322706777</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001554932321354595</v>
+        <v>0.000530140346063316</v>
       </c>
       <c r="D18" t="n">
-        <v>-19.73657823951818</v>
+        <v>-43.63124584275277</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06407560359497803</v>
+        <v>6.059164845628032e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02418837027578704</v>
+        <v>-0.0217123729597752</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01809304081505786</v>
+        <v>-0.01963425349436033</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09537167102496046</v>
+        <v>0.08483806966955006</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01844519747019843</v>
+        <v>-0.01831499382926514</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001558623565606206</v>
+        <v>0.0005282911064811415</v>
       </c>
       <c r="D19" t="n">
-        <v>-16.54139796203592</v>
+        <v>-38.00756023052819</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06313330168015474</v>
+        <v>6.713332125429022e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02150009742619334</v>
+        <v>-0.01935042911587681</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0153902975142035</v>
+        <v>-0.01727955854265346</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09806717910018448</v>
+        <v>0.08719638906735269</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01508713031905849</v>
+        <v>-0.01578134585328985</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001564496320681142</v>
+        <v>0.000537749933470827</v>
       </c>
       <c r="D20" t="n">
-        <v>-12.71979854351956</v>
+        <v>-30.50240151551372</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04569338299175582</v>
+        <v>0.0003942099570098182</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01815354088342371</v>
+        <v>-0.01683532016207684</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01202071975469326</v>
+        <v>-0.01472737154450287</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1014252462513244</v>
+        <v>0.08973003704332796</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01116239933230316</v>
+        <v>-0.01052484881736467</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001571051878803383</v>
+        <v>0.0005457492115543434</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.296954745378811</v>
+        <v>-18.39508621060061</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05450412338879542</v>
+        <v>0.03813535985923081</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01424165846405616</v>
+        <v>-0.0115945014875032</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.008083140200550171</v>
+        <v>-0.009455196147226147</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1053499772380797</v>
+        <v>0.09498653407925314</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.009663046383852902</v>
+        <v>-0.008306491239587181</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001575672705333781</v>
+        <v>0.0005419461950457809</v>
       </c>
       <c r="D22" t="n">
-        <v>-6.377536883494086</v>
+        <v>-12.59158202126708</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08994727907708512</v>
+        <v>0.0152044336885292</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01275136225339433</v>
+        <v>-0.009368690119423524</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.006574730514311473</v>
+        <v>-0.007244292359750835</v>
       </c>
       <c r="H22" t="n">
-        <v>0.10684933018653</v>
+        <v>0.09720489165703064</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.00704071877400686</v>
+        <v>-0.006837935983360133</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001584554299916765</v>
+        <v>0.0005516755797213348</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.938882801317176</v>
+        <v>-9.971652517880655</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1009943584871164</v>
+        <v>0.08000060044236663</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01014644226927926</v>
+        <v>-0.007919204214158898</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.003934995278734459</v>
+        <v>-0.005756667752561367</v>
       </c>
       <c r="H23" t="n">
-        <v>0.109471657796376</v>
+        <v>0.09867344691325769</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.005926540906968713</v>
+        <v>-0.005598038764819321</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001578467763082297</v>
+        <v>0.0005439974083955801</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.688416336087038</v>
+        <v>-7.54673023002526</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08379365906447162</v>
+        <v>0.0701315123840837</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.009020334436618212</v>
+        <v>-0.006664257970774811</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.002832747377319219</v>
+        <v>-0.004531819558863833</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1105858356634142</v>
+        <v>0.0999133441317985</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.003532949214596696</v>
+        <v>-0.004194242488561243</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001602383785466784</v>
+        <v>0.0005320503509792121</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.054847936483471</v>
+        <v>-5.247201438819127</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1528192543507446</v>
+        <v>0.09099229916336422</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.006673618052055169</v>
+        <v>-0.005237045816010939</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0003922803771382217</v>
+        <v>-0.003151439161111548</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1129794273557862</v>
+        <v>0.1013171404080566</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.001842627416697126</v>
+        <v>0.01288929695319745</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0007898463854698389</v>
+        <v>0.001111829825022671</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.7721361458799955</v>
+        <v>2.244962652974674</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02555688902135325</v>
+        <v>0.01017539056856102</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0002945329735445449</v>
+        <v>0.01071014369447223</v>
       </c>
       <c r="G26" t="n">
-        <v>0.003390721859849708</v>
+        <v>0.01506845021192268</v>
       </c>
       <c r="H26" t="n">
-        <v>0.11835500398708</v>
+        <v>0.1184006798498153</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year18final.xlsx
+++ b/hourly datasets/cap_gen_year18final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1055113828966178</v>
+        <v>0.1003587361766473</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003077050901595573</v>
+        <v>0.002929799044780181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007090834989552793</v>
+        <v>0.0007562848835002599</v>
       </c>
       <c r="D3" t="n">
-        <v>5.155846636029093</v>
+        <v>4.669026363752953</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08345614489873396</v>
+        <v>0.04803174432917817</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00168726747658944</v>
+        <v>0.001447499103081003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004466834326601707</v>
+        <v>0.004412098986479359</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1085884337982134</v>
+        <v>0.1032885352214275</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006183902575172915</v>
+        <v>0.01003707230193226</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001623603099642614</v>
+        <v>0.001083382142646246</v>
       </c>
       <c r="D4" t="n">
-        <v>6.058520379474212</v>
+        <v>7.732333970374332</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03470057094788833</v>
+        <v>0.06224286994560415</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003001688329325818</v>
+        <v>0.007913675063964988</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009366116821020011</v>
+        <v>0.01216046953989953</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1116952854717907</v>
+        <v>0.1103958084785795</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01037695341129617</v>
+        <v>0.01130028856550529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002373578590677842</v>
+        <v>0.002555618659206158</v>
       </c>
       <c r="D5" t="n">
-        <v>6.858245491748216</v>
+        <v>6.899276931083723</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0002348453347379148</v>
+        <v>0.02990361951883126</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005724810501236933</v>
+        <v>0.006291351487111626</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0150290963213554</v>
+        <v>0.01630922564389896</v>
       </c>
       <c r="H5" t="n">
-        <v>0.115888336307914</v>
+        <v>0.1116590247421526</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007057157620615919</v>
+        <v>0.007962982769846855</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004298490341215918</v>
+        <v>0.001934463526501699</v>
       </c>
       <c r="D6" t="n">
-        <v>2.344374205507154</v>
+        <v>3.185191939809183</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07419427420557795</v>
+        <v>0.0843809157193815</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.001367753526678727</v>
+        <v>0.004171491981161525</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01548206876791056</v>
+        <v>0.01175447355853219</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1125685405172337</v>
+        <v>0.1083217189464941</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0085021688254235</v>
+        <v>-0.0001338235224639254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004310308172033145</v>
+        <v>0.002767200125672144</v>
       </c>
       <c r="D7" t="n">
-        <v>1.233395711586459</v>
+        <v>-0.1184912674657205</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1746252399387233</v>
+        <v>0.1204786248767305</v>
       </c>
       <c r="F7" t="n">
-        <v>5.409493788441077e-05</v>
+        <v>-0.005557453158542219</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01695024271296259</v>
+        <v>0.005289806113614366</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1140135517220413</v>
+        <v>0.1002249126541834</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.009890863204363233</v>
+        <v>0.0001731415054123433</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005394945667408544</v>
+        <v>0.002933816815335495</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8894896090888758</v>
+        <v>-0.2170596872504976</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1525084530008978</v>
+        <v>0.09225179605388595</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.000683065177812207</v>
+        <v>-0.005577051936291029</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02046479158653867</v>
+        <v>0.005923334947115715</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1154022461009811</v>
+        <v>0.1005318776820596</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008360746701278858</v>
+        <v>-0.003362808197006381</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005621032217840073</v>
+        <v>0.002606153103533349</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8606591534204926</v>
+        <v>-0.9179140231084318</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1307706093420732</v>
+        <v>0.09135117401121724</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.002656306746397124</v>
+        <v>-0.008470790543665068</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01937780014895484</v>
+        <v>0.001745174149652307</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1138721295978967</v>
+        <v>0.09699592797964091</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1055113828966178</v>
+        <v>-0.1003587361766473</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005285358317725725</v>
+        <v>0.0005302689225295495</v>
       </c>
       <c r="D10" t="n">
-        <v>-229.191924130787</v>
+        <v>-223.1990659293441</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1065472978095343</v>
+        <v>-0.1013980492195257</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1044754679837013</v>
+        <v>-0.09931942313376883</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04978652197816739</v>
+        <v>-0.04602060022632119</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005767820399017431</v>
+        <v>0.0005805885166960172</v>
       </c>
       <c r="D11" t="n">
-        <v>-96.29705670275807</v>
+        <v>-92.4869619751384</v>
       </c>
       <c r="E11" t="n">
-        <v>8.81580535912254e-171</v>
+        <v>2.747060075738324e-87</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05091699807586809</v>
+        <v>-0.04715853839092556</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04865604588046671</v>
+        <v>-0.04488266206171677</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05572486091845043</v>
+        <v>0.0543381359503261</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03913832365960477</v>
+        <v>-0.03482328186494046</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005510321437587137</v>
+        <v>0.0005593666955152568</v>
       </c>
       <c r="D12" t="n">
-        <v>-79.93599789829119</v>
+        <v>-73.8726083334948</v>
       </c>
       <c r="E12" t="n">
-        <v>3.409394990344216e-87</v>
+        <v>9.289015564213164e-09</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04021833070820878</v>
+        <v>-0.03591962592029811</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03805831661100076</v>
+        <v>-0.03372693780958283</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06637305923701306</v>
+        <v>0.06553545431170682</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03617143999336091</v>
+        <v>-0.03214099862747989</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005519944846386196</v>
+        <v>0.0005564541854377179</v>
       </c>
       <c r="D13" t="n">
-        <v>-73.41614956222762</v>
+        <v>-68.82339291315411</v>
       </c>
       <c r="E13" t="n">
-        <v>1.429841425579727e-103</v>
+        <v>1.150790048025341e-12</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03725333318157196</v>
+        <v>-0.0332316342596309</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03508954680514985</v>
+        <v>-0.03105036299532887</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06933994290325692</v>
+        <v>0.06821773754916739</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02985661707435921</v>
+        <v>-0.02638741149843627</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005331536511850108</v>
+        <v>0.000536916123872858</v>
       </c>
       <c r="D14" t="n">
-        <v>-64.41443175916565</v>
+        <v>-60.12728223595187</v>
       </c>
       <c r="E14" t="n">
-        <v>2.665552675886679e-23</v>
+        <v>1.223191720741791e-17</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03090158278942326</v>
+        <v>-0.02743975290399554</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02881165135929518</v>
+        <v>-0.025335070092877</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07565476582225861</v>
+        <v>0.07397132467821102</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02692384769151067</v>
+        <v>-0.02335296478259089</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005247263668221543</v>
+        <v>0.0005273604598739955</v>
       </c>
       <c r="D15" t="n">
-        <v>-58.7902041874756</v>
+        <v>-54.38745167527291</v>
       </c>
       <c r="E15" t="n">
-        <v>1.176921738007564e-11</v>
+        <v>2.232915638148001e-12</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02795229617493981</v>
+        <v>-0.02438657734244978</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02589539920808152</v>
+        <v>-0.022319352222732</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07858753520510715</v>
+        <v>0.0770057713940564</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02531101567749676</v>
+        <v>-0.02200700820138509</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005206222631651655</v>
+        <v>0.0005246391397285849</v>
       </c>
       <c r="D16" t="n">
-        <v>-54.35352884026561</v>
+        <v>-49.93253918373777</v>
       </c>
       <c r="E16" t="n">
-        <v>3.181565118844527e-51</v>
+        <v>6.249175503427253e-08</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02633142025692624</v>
+        <v>-0.02303528711811607</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02429061109806729</v>
+        <v>-0.02097872928465412</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08020036721912106</v>
+        <v>0.07835172797526219</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02423816440304967</v>
+        <v>-0.02052138936311074</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005281269613392352</v>
+        <v>0.0005266185597950991</v>
       </c>
       <c r="D17" t="n">
-        <v>-52.09330666426062</v>
+        <v>-46.17730258495217</v>
       </c>
       <c r="E17" t="n">
-        <v>8.358045163770415e-15</v>
+        <v>1.578787677541518e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02527327794817064</v>
+        <v>-0.02155354772450756</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02320305085792872</v>
+        <v>-0.01948923100171391</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08127321849356815</v>
+        <v>0.07983734681353655</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02067331322706777</v>
+        <v>-0.01762767007792329</v>
       </c>
       <c r="C18" t="n">
-        <v>0.000530140346063316</v>
+        <v>0.0005300204057255264</v>
       </c>
       <c r="D18" t="n">
-        <v>-43.63124584275277</v>
+        <v>-39.34074643620168</v>
       </c>
       <c r="E18" t="n">
-        <v>6.059164845628032e-06</v>
+        <v>0.008208832337815337</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0217123729597752</v>
+        <v>-0.0186664960039858</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01963425349436033</v>
+        <v>-0.01658884415186078</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08483806966955006</v>
+        <v>0.08273106609872399</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01831499382926514</v>
+        <v>-0.0158736454162465</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0005282911064811415</v>
+        <v>0.0005280382725260601</v>
       </c>
       <c r="D19" t="n">
-        <v>-38.00756023052819</v>
+        <v>-34.51867773043737</v>
       </c>
       <c r="E19" t="n">
-        <v>6.713332125429022e-06</v>
+        <v>0.002513878384369163</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01935042911587681</v>
+        <v>-0.01690858642993082</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01727955854265346</v>
+        <v>-0.01483870440256218</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08719638906735269</v>
+        <v>0.08448509076040078</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01578134585328985</v>
+        <v>-0.01336635294757425</v>
       </c>
       <c r="C20" t="n">
-        <v>0.000537749933470827</v>
+        <v>0.0005372421465298267</v>
       </c>
       <c r="D20" t="n">
-        <v>-30.50240151551372</v>
+        <v>-27.4775320734648</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0003942099570098182</v>
+        <v>0.005617966560550762</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01683532016207684</v>
+        <v>-0.01441933330203692</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01472737154450287</v>
+        <v>-0.01231337259311157</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08973003704332796</v>
+        <v>0.08699238322907303</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01052484881736467</v>
+        <v>-0.008914034767741146</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005457492115543434</v>
+        <v>0.0005455880832022857</v>
       </c>
       <c r="D21" t="n">
-        <v>-18.39508621060061</v>
+        <v>-16.42060004938772</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03813535985923081</v>
+        <v>0.0147241575981807</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0115945014875032</v>
+        <v>-0.009983372964089856</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.009455196147226147</v>
+        <v>-0.007844696571392435</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09498653407925314</v>
+        <v>0.09144470140890613</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.008306491239587181</v>
+        <v>-0.006929363259954056</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005419461950457809</v>
+        <v>0.0005448848048343615</v>
       </c>
       <c r="D22" t="n">
-        <v>-12.59158202126708</v>
+        <v>-10.99577592754617</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0152044336885292</v>
+        <v>0.007213336004680733</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.009368690119423524</v>
+        <v>-0.007997323137857969</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.007244292359750835</v>
+        <v>-0.005861403382050145</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09720489165703064</v>
+        <v>0.09342937291669323</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.006837935983360133</v>
+        <v>-0.005499809895412569</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005516755797213348</v>
+        <v>0.0005528800727050738</v>
       </c>
       <c r="D23" t="n">
-        <v>-9.971652517880655</v>
+        <v>-8.210375113204366</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08000060044236663</v>
+        <v>0.001185267641927815</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.007919204214158898</v>
+        <v>-0.006583440315867245</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.005756667752561367</v>
+        <v>-0.004416179474957894</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09867344691325769</v>
+        <v>0.09485892628123471</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.005598038764819321</v>
+        <v>-0.004793590559159498</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005439974083955801</v>
+        <v>0.0005445506428281444</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.54673023002526</v>
+        <v>-6.970105638522637</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0701315123840837</v>
+        <v>0.1127551383396765</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.006664257970774811</v>
+        <v>-0.005860895478315729</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.004531819558863833</v>
+        <v>-0.003726285640003267</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0999133441317985</v>
+        <v>0.09556514561748779</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.004194242488561243</v>
+        <v>-0.003681762710313281</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0005320503509792121</v>
+        <v>0.0005344466686441326</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.247201438819127</v>
+        <v>-5.087078559519859</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09099229916336422</v>
+        <v>0.09335798392618737</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.005237045816010939</v>
+        <v>-0.004729264211100644</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.003151439161111548</v>
+        <v>-0.002634261209525919</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1013171404080566</v>
+        <v>0.096676973466334</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01288929695319745</v>
+        <v>-0.008102065020886859</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001111829825022671</v>
+        <v>0.002461056173230783</v>
       </c>
       <c r="D26" t="n">
-        <v>2.244962652974674</v>
+        <v>-3.976354023688607</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01017539056856102</v>
+        <v>0.03399745641744919</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01071014369447223</v>
+        <v>-0.01292566108133148</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01506845021192268</v>
+        <v>-0.003278468960442237</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1184006798498153</v>
+        <v>0.09225667115576043</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year18final.xlsx
+++ b/hourly datasets/cap_gen_year18final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,595 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1003587361766473</v>
+        <v>0.1332437902301927</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002929799044780181</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0007562848835002599</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.669026363752953</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.04803174432917817</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.001447499103081003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.004412098986479359</v>
-      </c>
+        <v>0.118063793230043</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.1032885352214275</v>
+        <v>0.2513075834602357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01003707230193226</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.001083382142646246</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.732333970374332</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.06224286994560415</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.007913675063964988</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.01216046953989953</v>
-      </c>
+        <v>0.08848437092213526</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1103958084785795</v>
+        <v>0.221728161152328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01130028856550529</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.002555618659206158</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.899276931083723</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02990361951883126</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.006291351487111626</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01630922564389896</v>
-      </c>
+        <v>0.04804444477471306</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1116590247421526</v>
+        <v>0.1812882350049058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007962982769846855</v>
+        <v>0.02447654279400635</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001934463526501699</v>
+        <v>0.001249602785601917</v>
       </c>
       <c r="D6" t="n">
-        <v>3.185191939809183</v>
+        <v>4.582703556343918</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0843809157193815</v>
+        <v>0.0156334012240249</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004171491981161525</v>
+        <v>0.0220252787324959</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01175447355853219</v>
+        <v>0.02692780685551658</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1083217189464941</v>
+        <v>0.157720333024199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0001338235224639254</v>
+        <v>0.01003302317794286</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002767200125672144</v>
+        <v>0.000818069095100429</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1184912674657205</v>
+        <v>1.919333196018097</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1204786248767305</v>
+        <v>0.008239042858939038</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.005557453158542219</v>
+        <v>0.00842766903862073</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005289806113614366</v>
+        <v>0.01163837731726471</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1002249126541834</v>
+        <v>0.1432768134081356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0001731415054123433</v>
+        <v>0.006147556009298178</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002933816815335495</v>
+        <v>0.0006790237025155499</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2170596872504976</v>
+        <v>1.352049194639464</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09225179605388595</v>
+        <v>0.0004558722329507571</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.005577051936291029</v>
+        <v>0.004815309717496345</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005923334947115715</v>
+        <v>0.007479802301100086</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1005318776820596</v>
+        <v>0.1393913462394909</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.003362808197006381</v>
+        <v>0.001641991540041343</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002606153103533349</v>
+        <v>0.0005632302433935051</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.9179140231084318</v>
+        <v>0.8427105636339236</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09135117401121724</v>
+        <v>0.0002771467756085619</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.008470790543665068</v>
+        <v>0.0005367379949968752</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001745174149652307</v>
+        <v>0.002747245085085885</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09699592797964091</v>
+        <v>0.1348857817702341</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1003587361766473</v>
+        <v>0.002060930990142208</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005302689225295495</v>
+        <v>0.0004313671767602561</v>
       </c>
       <c r="D10" t="n">
-        <v>-223.1990659293441</v>
+        <v>0.9113097148816901</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.0002920624419127367</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1013980492195257</v>
+        <v>0.0012148252382843</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09931942313376883</v>
+        <v>0.002907036742000105</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1353047212203349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04602060022632119</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005805885166960172</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-92.4869619751384</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.747060075738324e-87</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.04715853839092556</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04488266206171677</v>
-      </c>
+        <v>0.02864079222735028</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.0543381359503261</v>
+        <v>0.161884582457543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03482328186494046</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005593666955152568</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-73.8726083334948</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9.289015564213164e-09</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.03591962592029811</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03372693780958283</v>
-      </c>
+        <v>0.05394013430221995</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.06553545431170682</v>
+        <v>0.1871839245324126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03214099862747989</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005564541854377179</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-68.82339291315411</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.150790048025341e-12</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.0332316342596309</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.03105036299532887</v>
-      </c>
+        <v>0.07040276893043947</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.06821773754916739</v>
+        <v>0.2036465591606322</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02638741149843627</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.000536916123872858</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-60.12728223595187</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.223191720741791e-17</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.02743975290399554</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.025335070092877</v>
-      </c>
+        <v>0.07919671889494244</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.07397132467821102</v>
+        <v>0.2124405091251351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02335296478259089</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0005273604598739955</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-54.38745167527291</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.232915638148001e-12</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02438657734244978</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.022319352222732</v>
-      </c>
+        <v>0.0855960406294913</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.0770057713940564</v>
+        <v>0.218839830859684</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02200700820138509</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0005246391397285849</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-49.93253918373777</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6.249175503427253e-08</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.02303528711811607</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.02097872928465412</v>
-      </c>
+        <v>0.09065640378237937</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.07835172797526219</v>
+        <v>0.2239001940125721</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02052138936311074</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0005266185597950991</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-46.17730258495217</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.578787677541518e-05</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.02155354772450756</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.01948923100171391</v>
-      </c>
+        <v>0.09441771599760861</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.07983734681353655</v>
+        <v>0.2276615062278013</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01762767007792329</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0005300204057255264</v>
+        <v>-0.1332437902301927</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>-39.34074643620168</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.008208832337815337</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.0186664960039858</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.01658884415186078</v>
-      </c>
+        <v>-27.08235009924668</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.08273106609872399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0158736454162465</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0005280382725260601</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-34.51867773043737</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.002513878384369163</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01690858642993082</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01483870440256218</v>
-      </c>
+        <v>0.09621950867505136</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.08448509076040078</v>
+        <v>0.2294632989052441</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01336635294757425</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0005372421465298267</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-27.4775320734648</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.005617966560550762</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.01441933330203692</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.01231337259311157</v>
-      </c>
+        <v>0.09706979673511278</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.08699238322907303</v>
+        <v>0.2303135869653055</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.008914034767741146</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0005455880832022857</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-16.42060004938772</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.0147241575981807</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.009983372964089856</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.007844696571392435</v>
-      </c>
+        <v>0.1026506462417819</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.09144470140890613</v>
+        <v>0.2358944364719746</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006929363259954056</v>
+        <v>0.1076358127828701</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005448848048343615</v>
+        <v>0.006320994314026242</v>
       </c>
       <c r="D22" t="n">
-        <v>-10.99577592754617</v>
+        <v>400024808430.9644</v>
       </c>
       <c r="E22" t="n">
-        <v>0.007213336004680733</v>
+        <v>0.03331044646810595</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.007997323137857969</v>
+        <v>0.09521652559963707</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005861403382050145</v>
+        <v>0.1200550999661028</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09342937291669323</v>
+        <v>0.2408796030130628</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005499809895412569</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0005528800727050738</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-8.210375113204366</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.001185267641927815</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.006583440315867245</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.004416179474957894</v>
-      </c>
+        <v>0.1100885525238923</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.09485892628123471</v>
+        <v>0.2433323427540851</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004793590559159498</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0005445506428281444</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-6.970105638522637</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1127551383396765</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.005860895478315729</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.003726285640003267</v>
-      </c>
+        <v>0.1132225468334433</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.09556514561748779</v>
+        <v>0.246466337063636</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.003681762710313281</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0005344466686441326</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-5.087078559519859</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.09335798392618737</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.004729264211100644</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.002634261209525919</v>
-      </c>
+        <v>0.1153791050631574</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.096676973466334</v>
+        <v>0.2486228952933501</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1208474711227399</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.006350211306089159</v>
+      </c>
+      <c r="D26" t="n">
+        <v>149059568977.8445</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.03418824765366737</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1083569228986393</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1333380193468399</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2540912613529326</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.123349969996511</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>730736809395.5846</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0.2565937602267037</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1285852695948463</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.006848302560705055</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-297519513054.7499</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.07101477034610916</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.115141079540525</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1420294596491679</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.261829059825039</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>-0.008102065020886859</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.002461056173230783</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-3.976354023688607</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.03399745641744919</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-0.01292566108133148</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-0.003278468960442237</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.09225667115576043</v>
+      <c r="B29" t="n">
+        <v>0.004162883866355236</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0003370837499981892</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.554265010579713</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.03644919049796209</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.003501782276570972</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.004823985456139574</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1374066740965479</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year18final.xlsx
+++ b/hourly datasets/cap_gen_year18final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1332437902301927</v>
+        <v>0.1003266167401247</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.118063793230043</v>
+        <v>0.1205989937732461</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2513075834602357</v>
+        <v>0.2209256105133708</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08848437092213526</v>
+        <v>0.0922334969654254</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.221728161152328</v>
+        <v>0.1925601137055501</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04804444477471306</v>
+        <v>0.05455858099938535</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -544,7 +544,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1812882350049058</v>
+        <v>0.15488519773951</v>
       </c>
     </row>
     <row r="6">
@@ -554,25 +554,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02447654279400635</v>
+        <v>0.03399105017831703</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001249602785601917</v>
+        <v>0.002063161373095052</v>
       </c>
       <c r="D6" t="n">
-        <v>4.582703556343918</v>
+        <v>5.108590596214622</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0156334012240249</v>
+        <v>0.01793130077484841</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0220252787324959</v>
+        <v>0.02994497435746121</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02692780685551658</v>
+        <v>0.0380371259991736</v>
       </c>
       <c r="H6" t="n">
-        <v>0.157720333024199</v>
+        <v>0.1343176669184417</v>
       </c>
     </row>
     <row r="7">
@@ -582,25 +582,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01003302317794286</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.000818069095100429</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.919333196018097</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.008239042858939038</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.00842766903862073</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.01163837731726471</v>
-      </c>
+        <v>0.02098329472509189</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.1432768134081356</v>
+        <v>0.1213099114652166</v>
       </c>
     </row>
     <row r="8">
@@ -610,25 +600,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.006147556009298178</v>
+        <v>0.01766329170384317</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006790237025155499</v>
+        <v>0.001525793020750666</v>
       </c>
       <c r="D8" t="n">
-        <v>1.352049194639464</v>
+        <v>2.288135697225182</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0004558722329507571</v>
+        <v>0.002831795691038407</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004815309717496345</v>
+        <v>0.01467106096328796</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007479802301100086</v>
+        <v>0.02065552244439854</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1393913462394909</v>
+        <v>0.1179899084439679</v>
       </c>
     </row>
     <row r="9">
@@ -638,25 +628,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001641991540041343</v>
+        <v>0.01370593639939178</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005632302433935051</v>
+        <v>0.001325405845022589</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8427105636339236</v>
+        <v>1.845308043302414</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002771467756085619</v>
+        <v>0.004891630035760213</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0005367379949968752</v>
+        <v>0.0111056660067547</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002747245085085885</v>
+        <v>0.01630620679202887</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1348857817702341</v>
+        <v>0.1140325531395165</v>
       </c>
     </row>
     <row r="10">
@@ -666,25 +656,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002060930990142208</v>
+        <v>0.01456505654627893</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004313671767602561</v>
+        <v>0.001243506905066848</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9113097148816901</v>
+        <v>1.927075274408629</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0002920624419127367</v>
+        <v>0.001565032143305553</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0012148252382843</v>
+        <v>0.01212681971998573</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002907036742000105</v>
+        <v>0.01700329337257235</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1353047212203349</v>
+        <v>0.1148916732864036</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +684,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02864079222735028</v>
+        <v>0.02944881224271728</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -702,7 +692,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.161884582457543</v>
+        <v>0.129775428982842</v>
       </c>
     </row>
     <row r="12">
@@ -712,7 +702,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05394013430221995</v>
+        <v>0.05493462039451719</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -720,7 +710,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1871839245324126</v>
+        <v>0.1552612371346419</v>
       </c>
     </row>
     <row r="13">
@@ -730,7 +720,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07040276893043947</v>
+        <v>0.07136870849472941</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -738,7 +728,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2036465591606322</v>
+        <v>0.1716953252348541</v>
       </c>
     </row>
     <row r="14">
@@ -748,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07919671889494244</v>
+        <v>0.08071366564040153</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -756,7 +746,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2124405091251351</v>
+        <v>0.1810402823805262</v>
       </c>
     </row>
     <row r="15">
@@ -766,7 +756,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0855960406294913</v>
+        <v>0.08688589785266318</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -774,7 +764,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.218839830859684</v>
+        <v>0.1872125145927879</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +774,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09065640378237937</v>
+        <v>0.09136261360814441</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -792,7 +782,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2239001940125721</v>
+        <v>0.1916892303482691</v>
       </c>
     </row>
     <row r="17">
@@ -802,7 +792,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09441771599760861</v>
+        <v>0.09470325513716944</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -810,7 +800,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2276615062278013</v>
+        <v>0.1950298718772941</v>
       </c>
     </row>
     <row r="18">
@@ -820,19 +810,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1332437902301927</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>-0.1003266167401247</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.008832477172191365</v>
       </c>
       <c r="D18" t="n">
-        <v>-27.08235009924668</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>-17.67940362634218</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02639662674569922</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1176697865311915</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.08298344694905865</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -844,7 +838,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.09621950867505136</v>
+        <v>0.09734546563161187</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -852,7 +846,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2294632989052441</v>
+        <v>0.1976720823717366</v>
       </c>
     </row>
     <row r="20">
@@ -862,7 +856,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09706979673511278</v>
+        <v>0.09783008745779838</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -870,7 +864,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2303135869653055</v>
+        <v>0.1981567041979231</v>
       </c>
     </row>
     <row r="21">
@@ -880,15 +874,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1026506462417819</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>0.1038767265330956</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.00672076562751971</v>
+      </c>
+      <c r="D21" t="n">
+        <v>307728840990.1163</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.03162607564290397</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.09067776039653325</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1170756926696575</v>
+      </c>
       <c r="H21" t="n">
-        <v>0.2358944364719746</v>
+        <v>0.2042033432732203</v>
       </c>
     </row>
     <row r="22">
@@ -898,25 +902,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1076358127828701</v>
+        <v>0.1090740696573277</v>
       </c>
       <c r="C22" t="n">
-        <v>0.006320994314026242</v>
+        <v>0.006553932167117952</v>
       </c>
       <c r="D22" t="n">
-        <v>400024808430.9644</v>
+        <v>391349497938.6056</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03331044646810595</v>
+        <v>0.03407191299841043</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09521652559963707</v>
+        <v>0.09619808977674633</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1200550999661028</v>
+        <v>0.1219500495379095</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2408796030130628</v>
+        <v>0.2094006863974524</v>
       </c>
     </row>
     <row r="23">
@@ -926,7 +930,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1100885525238923</v>
+        <v>0.1124025969882497</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -934,7 +938,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.2433323427540851</v>
+        <v>0.2127292137283744</v>
       </c>
     </row>
     <row r="24">
@@ -944,15 +948,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1132225468334433</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+        <v>0.1144932298472833</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00675977884241839</v>
+      </c>
+      <c r="D24" t="n">
+        <v>513288001324.6094</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.03725583779306802</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1012186060912258</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1277678536033409</v>
+      </c>
       <c r="H24" t="n">
-        <v>0.246466337063636</v>
+        <v>0.214819846587408</v>
       </c>
     </row>
     <row r="25">
@@ -962,15 +976,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1153791050631574</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>0.1162575148829573</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.006596353122314789</v>
+      </c>
+      <c r="D25" t="n">
+        <v>390053106657.634</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.03780639053908534</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1033050339947416</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1292099957711725</v>
+      </c>
       <c r="H25" t="n">
-        <v>0.2486228952933501</v>
+        <v>0.216584131623082</v>
       </c>
     </row>
     <row r="26">
@@ -980,25 +1004,15 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1208474711227399</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.006350211306089159</v>
-      </c>
-      <c r="D26" t="n">
-        <v>149059568977.8445</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.03418824765366737</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.1083569228986393</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.1333380193468399</v>
-      </c>
+        <v>0.1219701721120768</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>0.2540912613529326</v>
+        <v>0.2222967888522016</v>
       </c>
     </row>
     <row r="27">
@@ -1008,21 +1022,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.123349969996511</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.123586615344692</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.006945215237562263</v>
       </c>
       <c r="D27" t="n">
-        <v>730736809395.5846</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>493671805455.4334</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.04689485811807125</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1099444188436101</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1372288118457747</v>
+      </c>
       <c r="H27" t="n">
-        <v>0.2565937602267037</v>
+        <v>0.2239132320848167</v>
       </c>
     </row>
     <row r="28">
@@ -1032,25 +1050,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1285852695948463</v>
+        <v>0.1296757909902669</v>
       </c>
       <c r="C28" t="n">
-        <v>0.006848302560705055</v>
+        <v>0.007319432262642567</v>
       </c>
       <c r="D28" t="n">
-        <v>-297519513054.7499</v>
+        <v>27.59098710759789</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07101477034610916</v>
+        <v>0.07420003887153313</v>
       </c>
       <c r="F28" t="n">
-        <v>0.115141079540525</v>
+        <v>0.1153069884658215</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1420294596491679</v>
+        <v>0.1440445935147124</v>
       </c>
       <c r="H28" t="n">
-        <v>0.261829059825039</v>
+        <v>0.2300024077303915</v>
       </c>
     </row>
     <row r="29">
@@ -1060,25 +1078,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.004162883866355236</v>
+        <v>0.0155674419619808</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0003370837499981892</v>
+        <v>0.001829527819614971</v>
       </c>
       <c r="D29" t="n">
-        <v>1.554265010579713</v>
+        <v>2.379153924950491</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03644919049796209</v>
+        <v>0.03488855226974073</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003501782276570972</v>
+        <v>0.01196016692585762</v>
       </c>
       <c r="G29" t="n">
-        <v>0.004823985456139574</v>
+        <v>0.01917471699810374</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1374066740965479</v>
+        <v>0.1158940587021055</v>
       </c>
     </row>
   </sheetData>
